--- a/biology/Médecine/Syndrome_de_congestion_pelvienne/Syndrome_de_congestion_pelvienne.xlsx
+++ b/biology/Médecine/Syndrome_de_congestion_pelvienne/Syndrome_de_congestion_pelvienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de congestion pelvienne est une pathologie causée par la présence de varices sur l'utérus et/ou les ovaires, qui engendrent des douleurs pelviennes chroniques importantes, pendant et en dehors des règles, ainsi que pendant les rapports sexuels.  Environ 1 % des femmes seraient touchées[1].
-Le diagnostic s'opère par imagerie[2]. Ce syndrome est fréquemment mal diagnostiqué, souvent confondu avec de l'endométriose[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de congestion pelvienne est une pathologie causée par la présence de varices sur l'utérus et/ou les ovaires, qui engendrent des douleurs pelviennes chroniques importantes, pendant et en dehors des règles, ainsi que pendant les rapports sexuels.  Environ 1 % des femmes seraient touchées.
+Le diagnostic s'opère par imagerie. Ce syndrome est fréquemment mal diagnostiqué, souvent confondu avec de l'endométriose.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les femmes qui sont atteintes par des douleurs chroniques pelviennes, environ 30 % seraient atteintes par le syndrome de congestion pelvienne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les femmes qui sont atteintes par des douleurs chroniques pelviennes, environ 30 % seraient atteintes par le syndrome de congestion pelvienne.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,9 +587,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel
-D'autres affections provoquent des douleurs pelviennes chroniques : syndrome de la vessie douloureuse, endométriose, neuralgie pelvienne, syndrome du côlon irritable, syndrome myofascial douloureux, myalgie du plancher pelvien. Le diagnostic veille également à écarter les différentes affections du tractus urinaire, du système digestif, des maladies musculo-squelettiques, neurologiques ou d'ordre mental[3].
-Examens</t>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres affections provoquent des douleurs pelviennes chroniques : syndrome de la vessie douloureuse, endométriose, neuralgie pelvienne, syndrome du côlon irritable, syndrome myofascial douloureux, myalgie du plancher pelvien. Le diagnostic veille également à écarter les différentes affections du tractus urinaire, du système digestif, des maladies musculo-squelettiques, neurologiques ou d'ordre mental.
+</t>
         </is>
       </c>
     </row>
@@ -602,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
